--- a/data/NectarExperiment_2022_V2.xlsx
+++ b/data/NectarExperiment_2022_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manon\Documents\MSc Biology\Master's Project\Statistics\NectarExperiment_Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94407012-435E-4EAA-A6BD-07DCBDFC89DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A780E451-0402-4AE3-AF0D-F01BAFF94BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreatmentData" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,9 @@
     <customWorkbookView name="Filter 1" guid="{F8E81C6D-A0C5-4B8F-8FCC-6FDA07E6D281}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId9"/>
+    <pivotCache cacheId="6" r:id="rId9"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="248">
   <si>
     <t>Site</t>
   </si>
@@ -765,12 +766,42 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>Larvae</t>
+  </si>
+  <si>
+    <t>Milkweed</t>
+  </si>
+  <si>
+    <t>Hurdman</t>
+  </si>
+  <si>
+    <t>Carleton</t>
+  </si>
+  <si>
+    <t>Greenhouse</t>
+  </si>
+  <si>
+    <t>Fletcher EM</t>
+  </si>
+  <si>
+    <t>Fletcher GR</t>
+  </si>
+  <si>
+    <t>Field site</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -823,6 +854,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -944,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -968,6 +1006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,7 +1025,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manon" refreshedDate="44858.571568518521" refreshedVersion="8" recordCount="322" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manon" refreshedDate="45583.578571180558" refreshedVersion="8" recordCount="322" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:R323" sheet="TreatmentData"/>
   </cacheSource>
@@ -7270,7 +7309,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="Pivot Table 1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="Pivot Table 1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A1:C85" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="17">
     <pivotField name="Couple" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -7877,19 +7916,19 @@
   </sheetPr>
   <dimension ref="A1:R323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7945,7 +7984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -8003,7 +8042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8060,7 +8099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -8117,7 +8156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -8174,7 +8213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -8231,7 +8270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -8288,7 +8327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -8345,7 +8384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -8402,7 +8441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -8459,7 +8498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -8516,7 +8555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -8573,7 +8612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -8630,7 +8669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -8687,7 +8726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -8744,7 +8783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -8801,7 +8840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -8858,7 +8897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -8915,7 +8954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -8972,7 +9011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -9029,7 +9068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -9083,7 +9122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -9137,7 +9176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -9191,7 +9230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -9245,7 +9284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -9302,7 +9341,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -9359,7 +9398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -9416,7 +9455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -9473,7 +9512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -9527,7 +9566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -9581,7 +9620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -9635,7 +9674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -9689,7 +9728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -9743,7 +9782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
@@ -9797,7 +9836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -9851,7 +9890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -9908,7 +9947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
@@ -9965,7 +10004,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
@@ -10022,7 +10061,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -10079,7 +10118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -10136,7 +10175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -10193,7 +10232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -10250,7 +10289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -10307,7 +10346,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -10364,7 +10403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -10421,7 +10460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -10475,7 +10514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -10529,7 +10568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
@@ -10586,7 +10625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
@@ -10643,7 +10682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -10700,7 +10739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -10757,7 +10796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -10814,7 +10853,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -10871,7 +10910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -10928,7 +10967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -10985,7 +11024,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -11042,7 +11081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>18</v>
       </c>
@@ -11099,7 +11138,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>18</v>
       </c>
@@ -11156,7 +11195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>18</v>
       </c>
@@ -11213,7 +11252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -11270,7 +11309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
@@ -11327,7 +11366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
@@ -11384,7 +11423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
@@ -11441,7 +11480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>18</v>
       </c>
@@ -11495,7 +11534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
@@ -11549,7 +11588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -11603,7 +11642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>18</v>
       </c>
@@ -11657,7 +11696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>18</v>
       </c>
@@ -11711,7 +11750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>18</v>
       </c>
@@ -11768,7 +11807,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>18</v>
       </c>
@@ -11825,7 +11864,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>18</v>
       </c>
@@ -11882,7 +11921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>18</v>
       </c>
@@ -11939,7 +11978,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>18</v>
       </c>
@@ -11996,7 +12035,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>18</v>
       </c>
@@ -12053,7 +12092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>18</v>
       </c>
@@ -12110,7 +12149,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -12167,7 +12206,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -12224,7 +12263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>28</v>
       </c>
@@ -12281,7 +12320,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>28</v>
       </c>
@@ -12338,7 +12377,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>28</v>
       </c>
@@ -12395,7 +12434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>73</v>
       </c>
@@ -12452,7 +12491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>73</v>
       </c>
@@ -12509,7 +12548,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>73</v>
       </c>
@@ -12566,7 +12605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>73</v>
       </c>
@@ -12623,7 +12662,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>18</v>
       </c>
@@ -12680,7 +12719,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>18</v>
       </c>
@@ -12737,7 +12776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>18</v>
       </c>
@@ -12794,7 +12833,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>18</v>
       </c>
@@ -12848,7 +12887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>18</v>
       </c>
@@ -12902,7 +12941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
@@ -12956,7 +12995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>18</v>
       </c>
@@ -13013,7 +13052,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>18</v>
       </c>
@@ -13070,7 +13109,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>18</v>
       </c>
@@ -13127,7 +13166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>18</v>
       </c>
@@ -13184,7 +13223,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>18</v>
       </c>
@@ -13241,7 +13280,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>18</v>
       </c>
@@ -13298,7 +13337,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>18</v>
       </c>
@@ -13355,7 +13394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -13412,7 +13451,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>18</v>
       </c>
@@ -13469,7 +13508,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>18</v>
       </c>
@@ -13526,7 +13565,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>18</v>
       </c>
@@ -13583,7 +13622,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>18</v>
       </c>
@@ -13640,7 +13679,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>18</v>
       </c>
@@ -13697,7 +13736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>18</v>
       </c>
@@ -13754,7 +13793,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>18</v>
       </c>
@@ -13811,7 +13850,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>18</v>
       </c>
@@ -13868,7 +13907,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>18</v>
       </c>
@@ -13925,7 +13964,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>28</v>
       </c>
@@ -13982,7 +14021,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>28</v>
       </c>
@@ -14039,7 +14078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>28</v>
       </c>
@@ -14096,7 +14135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>28</v>
       </c>
@@ -14153,7 +14192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>28</v>
       </c>
@@ -14210,7 +14249,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>18</v>
       </c>
@@ -14267,7 +14306,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>18</v>
       </c>
@@ -14324,7 +14363,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>18</v>
       </c>
@@ -14381,7 +14420,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>18</v>
       </c>
@@ -14438,7 +14477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>28</v>
       </c>
@@ -14492,7 +14531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>28</v>
       </c>
@@ -14546,7 +14585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>28</v>
       </c>
@@ -14600,7 +14639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>28</v>
       </c>
@@ -14654,7 +14693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>28</v>
       </c>
@@ -14708,7 +14747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>28</v>
       </c>
@@ -14762,7 +14801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>28</v>
       </c>
@@ -14816,7 +14855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>28</v>
       </c>
@@ -14870,7 +14909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>28</v>
       </c>
@@ -14924,7 +14963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>28</v>
       </c>
@@ -14978,7 +15017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>28</v>
       </c>
@@ -15032,7 +15071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>28</v>
       </c>
@@ -15086,7 +15125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>28</v>
       </c>
@@ -15140,7 +15179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>28</v>
       </c>
@@ -15194,7 +15233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>28</v>
       </c>
@@ -15248,7 +15287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>28</v>
       </c>
@@ -15302,7 +15341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>28</v>
       </c>
@@ -15356,7 +15395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>28</v>
       </c>
@@ -15410,7 +15449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>28</v>
       </c>
@@ -15464,7 +15503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>28</v>
       </c>
@@ -15518,7 +15557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>28</v>
       </c>
@@ -15572,7 +15611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>18</v>
       </c>
@@ -15626,7 +15665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>18</v>
       </c>
@@ -15680,7 +15719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>18</v>
       </c>
@@ -15734,7 +15773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>18</v>
       </c>
@@ -15788,7 +15827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>18</v>
       </c>
@@ -15842,7 +15881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>18</v>
       </c>
@@ -15896,7 +15935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>18</v>
       </c>
@@ -15950,7 +15989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>18</v>
       </c>
@@ -16004,7 +16043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>18</v>
       </c>
@@ -16058,7 +16097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>18</v>
       </c>
@@ -16112,7 +16151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>18</v>
       </c>
@@ -16166,7 +16205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>18</v>
       </c>
@@ -16220,7 +16259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>18</v>
       </c>
@@ -16274,7 +16313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>18</v>
       </c>
@@ -16328,7 +16367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>18</v>
       </c>
@@ -16382,7 +16421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>18</v>
       </c>
@@ -16436,7 +16475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>28</v>
       </c>
@@ -16487,7 +16526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>28</v>
       </c>
@@ -16538,7 +16577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>28</v>
       </c>
@@ -16589,7 +16628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>28</v>
       </c>
@@ -16640,7 +16679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>28</v>
       </c>
@@ -16691,7 +16730,7 @@
         <v>0.62509999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>28</v>
       </c>
@@ -16742,7 +16781,7 @@
         <v>0.62509999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>28</v>
       </c>
@@ -16793,7 +16832,7 @@
         <v>0.62509999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>28</v>
       </c>
@@ -16844,7 +16883,7 @@
         <v>0.62509999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>18</v>
       </c>
@@ -16895,7 +16934,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>18</v>
       </c>
@@ -16946,7 +16985,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>18</v>
       </c>
@@ -16997,7 +17036,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>18</v>
       </c>
@@ -17051,7 +17090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>18</v>
       </c>
@@ -17105,7 +17144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>18</v>
       </c>
@@ -17159,7 +17198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>18</v>
       </c>
@@ -17213,7 +17252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>18</v>
       </c>
@@ -17267,7 +17306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>18</v>
       </c>
@@ -17321,7 +17360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>18</v>
       </c>
@@ -17375,7 +17414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>18</v>
       </c>
@@ -17429,7 +17468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>18</v>
       </c>
@@ -17483,7 +17522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>18</v>
       </c>
@@ -17537,7 +17576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>18</v>
       </c>
@@ -17591,7 +17630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>18</v>
       </c>
@@ -17645,7 +17684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>18</v>
       </c>
@@ -17699,7 +17738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>18</v>
       </c>
@@ -17753,7 +17792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>18</v>
       </c>
@@ -17807,7 +17846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>18</v>
       </c>
@@ -17861,7 +17900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>18</v>
       </c>
@@ -17915,7 +17954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>18</v>
       </c>
@@ -17969,7 +18008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>18</v>
       </c>
@@ -18023,7 +18062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>18</v>
       </c>
@@ -18077,7 +18116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>18</v>
       </c>
@@ -18131,7 +18170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>18</v>
       </c>
@@ -18185,7 +18224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>18</v>
       </c>
@@ -18239,7 +18278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>18</v>
       </c>
@@ -18293,7 +18332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>18</v>
       </c>
@@ -18347,7 +18386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>18</v>
       </c>
@@ -18401,7 +18440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>18</v>
       </c>
@@ -18455,7 +18494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>18</v>
       </c>
@@ -18509,7 +18548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>18</v>
       </c>
@@ -18563,7 +18602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>18</v>
       </c>
@@ -18617,7 +18656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>18</v>
       </c>
@@ -18671,7 +18710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>18</v>
       </c>
@@ -18725,7 +18764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>18</v>
       </c>
@@ -18779,7 +18818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>18</v>
       </c>
@@ -18833,7 +18872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>18</v>
       </c>
@@ -18887,7 +18926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>18</v>
       </c>
@@ -18941,7 +18980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>18</v>
       </c>
@@ -18995,7 +19034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>18</v>
       </c>
@@ -19049,7 +19088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>18</v>
       </c>
@@ -19103,7 +19142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>18</v>
       </c>
@@ -19157,7 +19196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>18</v>
       </c>
@@ -19211,7 +19250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>18</v>
       </c>
@@ -19265,7 +19304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>18</v>
       </c>
@@ -19319,7 +19358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>18</v>
       </c>
@@ -19373,7 +19412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>18</v>
       </c>
@@ -19427,7 +19466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>28</v>
       </c>
@@ -19481,7 +19520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>28</v>
       </c>
@@ -19535,7 +19574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>28</v>
       </c>
@@ -19589,7 +19628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>28</v>
       </c>
@@ -19643,7 +19682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>28</v>
       </c>
@@ -19697,7 +19736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>28</v>
       </c>
@@ -19751,7 +19790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>28</v>
       </c>
@@ -19805,7 +19844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>28</v>
       </c>
@@ -19859,7 +19898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>28</v>
       </c>
@@ -19913,7 +19952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>18</v>
       </c>
@@ -19967,7 +20006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>18</v>
       </c>
@@ -20021,7 +20060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>18</v>
       </c>
@@ -20075,7 +20114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>18</v>
       </c>
@@ -20129,7 +20168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>18</v>
       </c>
@@ -20183,7 +20222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>18</v>
       </c>
@@ -20237,7 +20276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>18</v>
       </c>
@@ -20291,7 +20330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>18</v>
       </c>
@@ -20345,7 +20384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>18</v>
       </c>
@@ -20399,7 +20438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>18</v>
       </c>
@@ -20453,7 +20492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>18</v>
       </c>
@@ -20507,7 +20546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>18</v>
       </c>
@@ -20561,7 +20600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>18</v>
       </c>
@@ -20615,7 +20654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>18</v>
       </c>
@@ -20669,7 +20708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>18</v>
       </c>
@@ -20723,7 +20762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>18</v>
       </c>
@@ -20777,7 +20816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>18</v>
       </c>
@@ -20831,7 +20870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>18</v>
       </c>
@@ -20885,7 +20924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>18</v>
       </c>
@@ -20939,7 +20978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>18</v>
       </c>
@@ -20993,7 +21032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>18</v>
       </c>
@@ -21047,7 +21086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>18</v>
       </c>
@@ -21101,7 +21140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>18</v>
       </c>
@@ -21155,7 +21194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>18</v>
       </c>
@@ -21209,7 +21248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>18</v>
       </c>
@@ -21263,7 +21302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>28</v>
       </c>
@@ -21317,7 +21356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>28</v>
       </c>
@@ -21371,7 +21410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>28</v>
       </c>
@@ -21425,7 +21464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>28</v>
       </c>
@@ -21479,7 +21518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>28</v>
       </c>
@@ -21533,7 +21572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>28</v>
       </c>
@@ -21587,7 +21626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>28</v>
       </c>
@@ -21641,7 +21680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>28</v>
       </c>
@@ -21695,7 +21734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>28</v>
       </c>
@@ -21749,7 +21788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>28</v>
       </c>
@@ -21803,7 +21842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>18</v>
       </c>
@@ -21857,7 +21896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>18</v>
       </c>
@@ -21911,7 +21950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>18</v>
       </c>
@@ -21965,7 +22004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>18</v>
       </c>
@@ -22019,7 +22058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>18</v>
       </c>
@@ -22073,7 +22112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>18</v>
       </c>
@@ -22127,7 +22166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>18</v>
       </c>
@@ -22181,7 +22220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>18</v>
       </c>
@@ -22235,7 +22274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>28</v>
       </c>
@@ -22289,7 +22328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>28</v>
       </c>
@@ -22343,7 +22382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>28</v>
       </c>
@@ -22397,7 +22436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>28</v>
       </c>
@@ -22451,7 +22490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>18</v>
       </c>
@@ -22505,7 +22544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>18</v>
       </c>
@@ -22559,7 +22598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>18</v>
       </c>
@@ -22613,7 +22652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>18</v>
       </c>
@@ -22667,7 +22706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>18</v>
       </c>
@@ -22721,7 +22760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>18</v>
       </c>
@@ -22775,7 +22814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>18</v>
       </c>
@@ -22829,7 +22868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>18</v>
       </c>
@@ -22883,7 +22922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>18</v>
       </c>
@@ -22937,7 +22976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>18</v>
       </c>
@@ -22991,7 +23030,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>18</v>
       </c>
@@ -23045,7 +23084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>18</v>
       </c>
@@ -23099,7 +23138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>18</v>
       </c>
@@ -23153,7 +23192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>18</v>
       </c>
@@ -23207,7 +23246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>18</v>
       </c>
@@ -23261,7 +23300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>18</v>
       </c>
@@ -23315,7 +23354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>18</v>
       </c>
@@ -23369,7 +23408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>18</v>
       </c>
@@ -23423,7 +23462,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>18</v>
       </c>
@@ -23477,7 +23516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>18</v>
       </c>
@@ -23531,7 +23570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>18</v>
       </c>
@@ -23585,7 +23624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>18</v>
       </c>
@@ -23639,7 +23678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>18</v>
       </c>
@@ -23693,7 +23732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>18</v>
       </c>
@@ -23747,7 +23786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>28</v>
       </c>
@@ -23801,7 +23840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>28</v>
       </c>
@@ -23855,7 +23894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>28</v>
       </c>
@@ -23909,7 +23948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>28</v>
       </c>
@@ -23963,7 +24002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>18</v>
       </c>
@@ -24017,7 +24056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>18</v>
       </c>
@@ -24071,7 +24110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>18</v>
       </c>
@@ -24125,7 +24164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>18</v>
       </c>
@@ -24179,7 +24218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>18</v>
       </c>
@@ -24233,7 +24272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>18</v>
       </c>
@@ -24287,7 +24326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>18</v>
       </c>
@@ -24341,7 +24380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>18</v>
       </c>
@@ -24395,7 +24434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>18</v>
       </c>
@@ -24449,7 +24488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>18</v>
       </c>
@@ -24503,7 +24542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>18</v>
       </c>
@@ -24557,7 +24596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>18</v>
       </c>
@@ -24611,7 +24650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>28</v>
       </c>
@@ -24665,7 +24704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>28</v>
       </c>
@@ -24719,7 +24758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>28</v>
       </c>
@@ -24773,7 +24812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>28</v>
       </c>
@@ -24827,7 +24866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>28</v>
       </c>
@@ -24881,7 +24920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>28</v>
       </c>
@@ -24935,7 +24974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>28</v>
       </c>
@@ -24989,7 +25028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>28</v>
       </c>
@@ -25043,7 +25082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>28</v>
       </c>
@@ -25097,7 +25136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>28</v>
       </c>
@@ -25151,7 +25190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>28</v>
       </c>
@@ -25205,7 +25244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>28</v>
       </c>
@@ -25259,7 +25298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>28</v>
       </c>
@@ -25313,7 +25352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>28</v>
       </c>
@@ -25367,7 +25406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>28</v>
       </c>
@@ -25421,7 +25460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>28</v>
       </c>
@@ -25475,7 +25514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>28</v>
       </c>
@@ -25529,7 +25568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>28</v>
       </c>
@@ -25588,7 +25627,7 @@
   <customSheetViews>
     <customSheetView guid="{F8E81C6D-A0C5-4B8F-8FCC-6FDA07E6D281}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:R333" xr:uid="{36A6B79F-58BC-493E-9F3F-9E6D38229B35}"/>
+      <autoFilter ref="B1:R333" xr:uid="{6017D932-303B-4E49-AB2F-132C7112D3BB}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25604,9 +25643,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -25620,7 +25659,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>96</v>
       </c>
@@ -25634,7 +25673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>123</v>
       </c>
@@ -25648,7 +25687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
@@ -25662,7 +25701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
@@ -25676,7 +25715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -25690,7 +25729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -25704,7 +25743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>141</v>
       </c>
@@ -25718,7 +25757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
@@ -25732,7 +25771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
@@ -25746,7 +25785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>122</v>
       </c>
@@ -25760,7 +25799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -25774,7 +25813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -25788,7 +25827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>117</v>
       </c>
@@ -25802,7 +25841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>164</v>
       </c>
@@ -25816,7 +25855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>165</v>
       </c>
@@ -25830,7 +25869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
@@ -25844,7 +25883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>162</v>
       </c>
@@ -25858,7 +25897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>163</v>
       </c>
@@ -25872,7 +25911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -25886,7 +25925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -25900,7 +25939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>142</v>
       </c>
@@ -25914,7 +25953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>139</v>
       </c>
@@ -25928,7 +25967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>97</v>
       </c>
@@ -25942,7 +25981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -25956,7 +25995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>149</v>
       </c>
@@ -25970,7 +26009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>161</v>
       </c>
@@ -25984,7 +26023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>118</v>
       </c>
@@ -25998,7 +26037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>120</v>
       </c>
@@ -26012,7 +26051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>156</v>
       </c>
@@ -26026,7 +26065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>148</v>
       </c>
@@ -26040,7 +26079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>144</v>
       </c>
@@ -26054,7 +26093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -26068,7 +26107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>146</v>
       </c>
@@ -26082,7 +26121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>145</v>
       </c>
@@ -26096,7 +26135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>112</v>
       </c>
@@ -26110,7 +26149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -26124,7 +26163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>102</v>
       </c>
@@ -26138,7 +26177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>151</v>
       </c>
@@ -26152,7 +26191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
@@ -26166,7 +26205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
@@ -26180,7 +26219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>135</v>
       </c>
@@ -26194,7 +26233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>113</v>
       </c>
@@ -26208,7 +26247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -26222,7 +26261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>115</v>
       </c>
@@ -26236,7 +26275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>116</v>
       </c>
@@ -26250,7 +26289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>130</v>
       </c>
@@ -26264,7 +26303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>152</v>
       </c>
@@ -26278,7 +26317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>119</v>
       </c>
@@ -26292,7 +26331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>104</v>
       </c>
@@ -26306,7 +26345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>121</v>
       </c>
@@ -26320,7 +26359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>137</v>
       </c>
@@ -26334,7 +26373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -26348,7 +26387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>109</v>
       </c>
@@ -26362,7 +26401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
@@ -26376,7 +26415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>155</v>
       </c>
@@ -26390,7 +26429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>132</v>
       </c>
@@ -26404,7 +26443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>158</v>
       </c>
@@ -26418,7 +26457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>159</v>
       </c>
@@ -26432,7 +26471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
@@ -26446,7 +26485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -26460,7 +26499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>84</v>
       </c>
@@ -26474,7 +26513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>103</v>
       </c>
@@ -26488,7 +26527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>90</v>
       </c>
@@ -26502,7 +26541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
@@ -26516,7 +26555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>125</v>
       </c>
@@ -26530,7 +26569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>111</v>
       </c>
@@ -26544,7 +26583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>36</v>
       </c>
@@ -26558,7 +26597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>82</v>
       </c>
@@ -26572,7 +26611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>39</v>
       </c>
@@ -26586,7 +26625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>80</v>
       </c>
@@ -26600,7 +26639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>20</v>
       </c>
@@ -26614,7 +26653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>29</v>
       </c>
@@ -26628,7 +26667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>51</v>
       </c>
@@ -26642,7 +26681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
@@ -26656,7 +26695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -26670,7 +26709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>55</v>
       </c>
@@ -26684,7 +26723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>99</v>
       </c>
@@ -26698,7 +26737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>101</v>
       </c>
@@ -26712,7 +26751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>33</v>
       </c>
@@ -26726,7 +26765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>53</v>
       </c>
@@ -26740,7 +26779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>106</v>
       </c>
@@ -26754,7 +26793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -26782,9 +26821,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>169</v>
       </c>
@@ -26801,7 +26840,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
@@ -26818,7 +26857,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>178</v>
       </c>
@@ -26835,7 +26874,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>182</v>
       </c>
@@ -26852,7 +26891,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>186</v>
       </c>
@@ -26869,7 +26908,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>189</v>
       </c>
@@ -26886,7 +26925,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>192</v>
       </c>
@@ -26903,7 +26942,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>195</v>
       </c>
@@ -26934,9 +26973,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>170</v>
       </c>
@@ -26970,12 +27009,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>203</v>
       </c>
@@ -26991,7 +27030,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>38</v>
       </c>
@@ -27004,7 +27043,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -27018,7 +27057,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -27034,7 +27073,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
@@ -27048,11 +27087,11 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
@@ -27066,13 +27105,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -27082,15 +27123,21 @@
       <c r="C1" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>206</v>
       </c>
@@ -27100,8 +27147,11 @@
       <c r="C3" s="4">
         <v>-75.728999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>208</v>
       </c>
@@ -27111,8 +27161,11 @@
       <c r="C4" s="4">
         <v>-75.7042</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>209</v>
       </c>
@@ -27122,8 +27175,11 @@
       <c r="C5" s="4">
         <v>-75.745500000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>207</v>
       </c>
@@ -27133,8 +27189,11 @@
       <c r="C6" s="4">
         <v>-75.511452000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>215</v>
       </c>
@@ -27143,6 +27202,65 @@
       </c>
       <c r="C7" s="4">
         <v>-75.974540000000005</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8">
+        <v>45.414048000000001</v>
+      </c>
+      <c r="C8">
+        <v>-75.664535000000001</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9">
+        <v>45.383763000000002</v>
+      </c>
+      <c r="C9">
+        <v>-75.693096999999995</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="19">
+        <v>45.385815000000001</v>
+      </c>
+      <c r="C10">
+        <v>-75.706222999999994</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="19">
+        <v>45.384703999999999</v>
+      </c>
+      <c r="C11">
+        <v>-75.703754000000004</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -27159,9 +27277,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -27169,7 +27287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -27177,7 +27295,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -27185,7 +27303,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -27193,7 +27311,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -27201,7 +27319,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -27209,7 +27327,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -27217,7 +27335,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -27225,7 +27343,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -27233,7 +27351,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -27241,7 +27359,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -27249,7 +27367,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -27257,7 +27375,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -27265,7 +27383,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -27273,7 +27391,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -27281,7 +27399,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -27289,7 +27407,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>232</v>
       </c>
@@ -27297,12 +27415,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>235</v>
       </c>
@@ -27322,11 +27440,13 @@
   </sheetPr>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -27337,7 +27457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>127</v>
       </c>
@@ -27348,70 +27468,70 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="12" t="s">
         <v>77</v>
@@ -27420,98 +27540,98 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>24</v>
       </c>
@@ -27522,42 +27642,42 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="12" t="s">
         <v>114</v>
@@ -27566,77 +27686,77 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="12" t="s">
         <v>23</v>
@@ -27645,63 +27765,63 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="12" t="s">
         <v>107</v>
@@ -27710,42 +27830,42 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="12" t="s">
         <v>77</v>
@@ -27754,98 +27874,98 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="12" t="s">
         <v>50</v>
@@ -27854,91 +27974,91 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
         <v>237</v>
       </c>
